--- a/dataset/canciones.xlsx
+++ b/dataset/canciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emili\Documents\UCR\2024-ISem\IA\Tareas\AI_automatic_classification\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389568F7-AE02-47C2-9596-099F79852214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D794B082-E6D2-43DB-A6C1-75C638563FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="12180" xr2:uid="{B81B347C-BE8F-4899-9058-0C531A25DDB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="245">
   <si>
     <t>title</t>
   </si>
@@ -1142,13 +1142,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BC3104-BF12-434A-8E20-996A6501951C}">
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:C721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="40.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -3798,6 +3802,5286 @@
         <v>125</v>
       </c>
       <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A242" t="s">
+        <v>3</v>
+      </c>
+      <c r="B242" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A243" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A244" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A245" t="s">
+        <v>7</v>
+      </c>
+      <c r="B245" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A246" t="s">
+        <v>8</v>
+      </c>
+      <c r="B246" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A247" t="s">
+        <v>9</v>
+      </c>
+      <c r="B247" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A248" t="s">
+        <v>10</v>
+      </c>
+      <c r="B248" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A249" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A250" t="s">
+        <v>12</v>
+      </c>
+      <c r="B250" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A251" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A252" t="s">
+        <v>14</v>
+      </c>
+      <c r="B252" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A253" t="s">
+        <v>15</v>
+      </c>
+      <c r="B253" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A254" t="s">
+        <v>16</v>
+      </c>
+      <c r="B254" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A255" t="s">
+        <v>17</v>
+      </c>
+      <c r="B255" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A256" t="s">
+        <v>18</v>
+      </c>
+      <c r="B256" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A257" t="s">
+        <v>19</v>
+      </c>
+      <c r="B257" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A258" t="s">
+        <v>20</v>
+      </c>
+      <c r="B258" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A259" t="s">
+        <v>21</v>
+      </c>
+      <c r="B259" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A260" t="s">
+        <v>22</v>
+      </c>
+      <c r="B260" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A261" t="s">
+        <v>23</v>
+      </c>
+      <c r="B261" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A262" t="s">
+        <v>24</v>
+      </c>
+      <c r="B262" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A263" t="s">
+        <v>25</v>
+      </c>
+      <c r="B263" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A264" t="s">
+        <v>26</v>
+      </c>
+      <c r="B264" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A265" t="s">
+        <v>27</v>
+      </c>
+      <c r="B265" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A266" t="s">
+        <v>28</v>
+      </c>
+      <c r="B266" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A267" t="s">
+        <v>29</v>
+      </c>
+      <c r="B267" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A268" t="s">
+        <v>30</v>
+      </c>
+      <c r="B268" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A269" t="s">
+        <v>31</v>
+      </c>
+      <c r="B269" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A270" t="s">
+        <v>32</v>
+      </c>
+      <c r="B270" t="s">
+        <v>4</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A271" t="s">
+        <v>33</v>
+      </c>
+      <c r="B271" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A272" t="s">
+        <v>34</v>
+      </c>
+      <c r="B272" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A273" t="s">
+        <v>35</v>
+      </c>
+      <c r="B273" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A274" t="s">
+        <v>36</v>
+      </c>
+      <c r="B274" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A275" t="s">
+        <v>37</v>
+      </c>
+      <c r="B275" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A276" t="s">
+        <v>38</v>
+      </c>
+      <c r="B276" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A277" t="s">
+        <v>39</v>
+      </c>
+      <c r="B277" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A278" t="s">
+        <v>40</v>
+      </c>
+      <c r="B278" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A279" t="s">
+        <v>41</v>
+      </c>
+      <c r="B279" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A280" t="s">
+        <v>42</v>
+      </c>
+      <c r="B280" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A281" t="s">
+        <v>43</v>
+      </c>
+      <c r="B281" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A282" t="s">
+        <v>44</v>
+      </c>
+      <c r="B282" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A283" t="s">
+        <v>45</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A284" t="s">
+        <v>46</v>
+      </c>
+      <c r="B284" t="s">
+        <v>4</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A285" t="s">
+        <v>47</v>
+      </c>
+      <c r="B285" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A286" t="s">
+        <v>48</v>
+      </c>
+      <c r="B286" t="s">
+        <v>4</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A287" t="s">
+        <v>49</v>
+      </c>
+      <c r="B287" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A288" t="s">
+        <v>50</v>
+      </c>
+      <c r="B288" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A289" t="s">
+        <v>51</v>
+      </c>
+      <c r="B289" t="s">
+        <v>4</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A290" t="s">
+        <v>52</v>
+      </c>
+      <c r="B290" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A291" t="s">
+        <v>53</v>
+      </c>
+      <c r="B291" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A292" t="s">
+        <v>54</v>
+      </c>
+      <c r="B292" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A293" t="s">
+        <v>55</v>
+      </c>
+      <c r="B293" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A294" t="s">
+        <v>56</v>
+      </c>
+      <c r="B294" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A295" t="s">
+        <v>57</v>
+      </c>
+      <c r="B295" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A296" t="s">
+        <v>58</v>
+      </c>
+      <c r="B296" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A297" t="s">
+        <v>59</v>
+      </c>
+      <c r="B297" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A298" t="s">
+        <v>60</v>
+      </c>
+      <c r="B298" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A299" t="s">
+        <v>61</v>
+      </c>
+      <c r="B299" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A300" t="s">
+        <v>62</v>
+      </c>
+      <c r="B300" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A301" t="s">
+        <v>63</v>
+      </c>
+      <c r="B301" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A302" t="s">
+        <v>64</v>
+      </c>
+      <c r="B302" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A303" t="s">
+        <v>65</v>
+      </c>
+      <c r="B303" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A304" t="s">
+        <v>66</v>
+      </c>
+      <c r="B304" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A305" t="s">
+        <v>67</v>
+      </c>
+      <c r="B305" t="s">
+        <v>4</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A306" t="s">
+        <v>68</v>
+      </c>
+      <c r="B306" t="s">
+        <v>4</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A307" t="s">
+        <v>69</v>
+      </c>
+      <c r="B307" t="s">
+        <v>4</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A308" t="s">
+        <v>70</v>
+      </c>
+      <c r="B308" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A309" t="s">
+        <v>71</v>
+      </c>
+      <c r="B309" t="s">
+        <v>4</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A310" t="s">
+        <v>72</v>
+      </c>
+      <c r="B310" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A311" t="s">
+        <v>73</v>
+      </c>
+      <c r="B311" t="s">
+        <v>4</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A312" t="s">
+        <v>74</v>
+      </c>
+      <c r="B312" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A313" t="s">
+        <v>75</v>
+      </c>
+      <c r="B313" t="s">
+        <v>4</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A314" t="s">
+        <v>76</v>
+      </c>
+      <c r="B314" t="s">
+        <v>4</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A315" t="s">
+        <v>77</v>
+      </c>
+      <c r="B315" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A316" t="s">
+        <v>78</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A317" t="s">
+        <v>79</v>
+      </c>
+      <c r="B317" t="s">
+        <v>4</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A318" t="s">
+        <v>80</v>
+      </c>
+      <c r="B318" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A319" t="s">
+        <v>81</v>
+      </c>
+      <c r="B319" t="s">
+        <v>4</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A320" t="s">
+        <v>82</v>
+      </c>
+      <c r="B320" t="s">
+        <v>4</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A321" t="s">
+        <v>83</v>
+      </c>
+      <c r="B321" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A322" t="s">
+        <v>84</v>
+      </c>
+      <c r="B322" t="s">
+        <v>4</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A323" t="s">
+        <v>85</v>
+      </c>
+      <c r="B323" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A324" t="s">
+        <v>86</v>
+      </c>
+      <c r="B324" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A325" t="s">
+        <v>87</v>
+      </c>
+      <c r="B325" t="s">
+        <v>4</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A326" t="s">
+        <v>88</v>
+      </c>
+      <c r="B326" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A327" t="s">
+        <v>89</v>
+      </c>
+      <c r="B327" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A328" t="s">
+        <v>90</v>
+      </c>
+      <c r="B328" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A329" t="s">
+        <v>91</v>
+      </c>
+      <c r="B329" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A330" t="s">
+        <v>92</v>
+      </c>
+      <c r="B330" t="s">
+        <v>4</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A331" t="s">
+        <v>93</v>
+      </c>
+      <c r="B331" t="s">
+        <v>4</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A332" t="s">
+        <v>94</v>
+      </c>
+      <c r="B332" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A333" t="s">
+        <v>95</v>
+      </c>
+      <c r="B333" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A334" t="s">
+        <v>96</v>
+      </c>
+      <c r="B334" t="s">
+        <v>4</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A335" t="s">
+        <v>97</v>
+      </c>
+      <c r="B335" t="s">
+        <v>4</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A336" t="s">
+        <v>98</v>
+      </c>
+      <c r="B336" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A337" t="s">
+        <v>99</v>
+      </c>
+      <c r="B337" t="s">
+        <v>4</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A338" t="s">
+        <v>100</v>
+      </c>
+      <c r="B338" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A339" t="s">
+        <v>101</v>
+      </c>
+      <c r="B339" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A340" t="s">
+        <v>102</v>
+      </c>
+      <c r="B340" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A341" t="s">
+        <v>103</v>
+      </c>
+      <c r="B341" t="s">
+        <v>4</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A342" t="s">
+        <v>104</v>
+      </c>
+      <c r="B342" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A343" t="s">
+        <v>105</v>
+      </c>
+      <c r="B343" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A344" t="s">
+        <v>106</v>
+      </c>
+      <c r="B344" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A345" t="s">
+        <v>107</v>
+      </c>
+      <c r="B345" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A346" t="s">
+        <v>108</v>
+      </c>
+      <c r="B346" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A347" t="s">
+        <v>109</v>
+      </c>
+      <c r="B347" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A348" t="s">
+        <v>110</v>
+      </c>
+      <c r="B348" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A349" t="s">
+        <v>111</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A350" t="s">
+        <v>112</v>
+      </c>
+      <c r="B350" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A351" t="s">
+        <v>113</v>
+      </c>
+      <c r="B351" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A352" t="s">
+        <v>114</v>
+      </c>
+      <c r="B352" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A353" t="s">
+        <v>115</v>
+      </c>
+      <c r="B353" t="s">
+        <v>4</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A354" t="s">
+        <v>116</v>
+      </c>
+      <c r="B354" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A355" t="s">
+        <v>117</v>
+      </c>
+      <c r="B355" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A356" t="s">
+        <v>118</v>
+      </c>
+      <c r="B356" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A357" t="s">
+        <v>119</v>
+      </c>
+      <c r="B357" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A358" t="s">
+        <v>120</v>
+      </c>
+      <c r="B358" t="s">
+        <v>4</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A359" t="s">
+        <v>121</v>
+      </c>
+      <c r="B359" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A360" t="s">
+        <v>122</v>
+      </c>
+      <c r="B360" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A361" t="s">
+        <v>123</v>
+      </c>
+      <c r="B361" t="s">
+        <v>4</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A362" t="s">
+        <v>124</v>
+      </c>
+      <c r="B362" t="s">
+        <v>125</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A363" t="s">
+        <v>126</v>
+      </c>
+      <c r="B363" t="s">
+        <v>125</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A364" t="s">
+        <v>127</v>
+      </c>
+      <c r="B364" t="s">
+        <v>125</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A365" t="s">
+        <v>128</v>
+      </c>
+      <c r="B365" t="s">
+        <v>125</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A366" t="s">
+        <v>129</v>
+      </c>
+      <c r="B366" t="s">
+        <v>125</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A367" t="s">
+        <v>130</v>
+      </c>
+      <c r="B367" t="s">
+        <v>125</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A368" t="s">
+        <v>131</v>
+      </c>
+      <c r="B368" t="s">
+        <v>125</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A369" t="s">
+        <v>132</v>
+      </c>
+      <c r="B369" t="s">
+        <v>125</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A370" t="s">
+        <v>133</v>
+      </c>
+      <c r="B370" t="s">
+        <v>125</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A371" t="s">
+        <v>134</v>
+      </c>
+      <c r="B371" t="s">
+        <v>125</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A372" t="s">
+        <v>135</v>
+      </c>
+      <c r="B372" t="s">
+        <v>125</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A373" t="s">
+        <v>136</v>
+      </c>
+      <c r="B373" t="s">
+        <v>125</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A374" t="s">
+        <v>137</v>
+      </c>
+      <c r="B374" t="s">
+        <v>125</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A375" t="s">
+        <v>138</v>
+      </c>
+      <c r="B375" t="s">
+        <v>125</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A376" t="s">
+        <v>139</v>
+      </c>
+      <c r="B376" t="s">
+        <v>125</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A377" t="s">
+        <v>140</v>
+      </c>
+      <c r="B377" t="s">
+        <v>125</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A378" t="s">
+        <v>141</v>
+      </c>
+      <c r="B378" t="s">
+        <v>125</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A379" t="s">
+        <v>142</v>
+      </c>
+      <c r="B379" t="s">
+        <v>125</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A380" t="s">
+        <v>143</v>
+      </c>
+      <c r="B380" t="s">
+        <v>125</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A381" t="s">
+        <v>144</v>
+      </c>
+      <c r="B381" t="s">
+        <v>125</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A382" t="s">
+        <v>145</v>
+      </c>
+      <c r="B382" t="s">
+        <v>125</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A383" t="s">
+        <v>146</v>
+      </c>
+      <c r="B383" t="s">
+        <v>125</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A384" t="s">
+        <v>147</v>
+      </c>
+      <c r="B384" t="s">
+        <v>125</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A385" t="s">
+        <v>148</v>
+      </c>
+      <c r="B385" t="s">
+        <v>125</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A386" t="s">
+        <v>149</v>
+      </c>
+      <c r="B386" t="s">
+        <v>125</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A387" t="s">
+        <v>150</v>
+      </c>
+      <c r="B387" t="s">
+        <v>125</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A388" t="s">
+        <v>151</v>
+      </c>
+      <c r="B388" t="s">
+        <v>125</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A389" t="s">
+        <v>152</v>
+      </c>
+      <c r="B389" t="s">
+        <v>125</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A390" t="s">
+        <v>153</v>
+      </c>
+      <c r="B390" t="s">
+        <v>125</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A391" t="s">
+        <v>154</v>
+      </c>
+      <c r="B391" t="s">
+        <v>125</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A392" t="s">
+        <v>155</v>
+      </c>
+      <c r="B392" t="s">
+        <v>125</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A393" t="s">
+        <v>156</v>
+      </c>
+      <c r="B393" t="s">
+        <v>125</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A394" t="s">
+        <v>157</v>
+      </c>
+      <c r="B394" t="s">
+        <v>125</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A395" t="s">
+        <v>158</v>
+      </c>
+      <c r="B395" t="s">
+        <v>125</v>
+      </c>
+      <c r="C395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A396" t="s">
+        <v>159</v>
+      </c>
+      <c r="B396" t="s">
+        <v>125</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A397" t="s">
+        <v>160</v>
+      </c>
+      <c r="B397" t="s">
+        <v>125</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A398" t="s">
+        <v>161</v>
+      </c>
+      <c r="B398" t="s">
+        <v>125</v>
+      </c>
+      <c r="C398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A399" t="s">
+        <v>162</v>
+      </c>
+      <c r="B399" t="s">
+        <v>125</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A400" t="s">
+        <v>163</v>
+      </c>
+      <c r="B400" t="s">
+        <v>125</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A401" t="s">
+        <v>164</v>
+      </c>
+      <c r="B401" t="s">
+        <v>125</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A402" t="s">
+        <v>165</v>
+      </c>
+      <c r="B402" t="s">
+        <v>125</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A403" t="s">
+        <v>166</v>
+      </c>
+      <c r="B403" t="s">
+        <v>125</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A404" t="s">
+        <v>167</v>
+      </c>
+      <c r="B404" t="s">
+        <v>125</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A405" t="s">
+        <v>168</v>
+      </c>
+      <c r="B405" t="s">
+        <v>125</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A406" t="s">
+        <v>169</v>
+      </c>
+      <c r="B406" t="s">
+        <v>125</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A407" t="s">
+        <v>170</v>
+      </c>
+      <c r="B407" t="s">
+        <v>125</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A408" t="s">
+        <v>171</v>
+      </c>
+      <c r="B408" t="s">
+        <v>125</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A409" t="s">
+        <v>172</v>
+      </c>
+      <c r="B409" t="s">
+        <v>125</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A410" t="s">
+        <v>173</v>
+      </c>
+      <c r="B410" t="s">
+        <v>125</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A411" t="s">
+        <v>174</v>
+      </c>
+      <c r="B411" t="s">
+        <v>125</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A412" t="s">
+        <v>175</v>
+      </c>
+      <c r="B412" t="s">
+        <v>125</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A413" t="s">
+        <v>176</v>
+      </c>
+      <c r="B413" t="s">
+        <v>125</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A414" t="s">
+        <v>177</v>
+      </c>
+      <c r="B414" t="s">
+        <v>125</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A415" t="s">
+        <v>178</v>
+      </c>
+      <c r="B415" t="s">
+        <v>125</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A416" t="s">
+        <v>179</v>
+      </c>
+      <c r="B416" t="s">
+        <v>125</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A417" t="s">
+        <v>180</v>
+      </c>
+      <c r="B417" t="s">
+        <v>125</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A418" t="s">
+        <v>181</v>
+      </c>
+      <c r="B418" t="s">
+        <v>125</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A419" t="s">
+        <v>182</v>
+      </c>
+      <c r="B419" t="s">
+        <v>125</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A420" t="s">
+        <v>183</v>
+      </c>
+      <c r="B420" t="s">
+        <v>125</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A421" t="s">
+        <v>184</v>
+      </c>
+      <c r="B421" t="s">
+        <v>125</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A422" t="s">
+        <v>185</v>
+      </c>
+      <c r="B422" t="s">
+        <v>125</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A423" t="s">
+        <v>186</v>
+      </c>
+      <c r="B423" t="s">
+        <v>125</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A424" t="s">
+        <v>187</v>
+      </c>
+      <c r="B424" t="s">
+        <v>125</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A425" t="s">
+        <v>188</v>
+      </c>
+      <c r="B425" t="s">
+        <v>125</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A426" t="s">
+        <v>189</v>
+      </c>
+      <c r="B426" t="s">
+        <v>125</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A427" t="s">
+        <v>190</v>
+      </c>
+      <c r="B427" t="s">
+        <v>125</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A428" t="s">
+        <v>191</v>
+      </c>
+      <c r="B428" t="s">
+        <v>125</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A429" t="s">
+        <v>192</v>
+      </c>
+      <c r="B429" t="s">
+        <v>125</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A430" t="s">
+        <v>193</v>
+      </c>
+      <c r="B430" t="s">
+        <v>125</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A431" t="s">
+        <v>194</v>
+      </c>
+      <c r="B431" t="s">
+        <v>125</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A432" t="s">
+        <v>195</v>
+      </c>
+      <c r="B432" t="s">
+        <v>125</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A433" t="s">
+        <v>196</v>
+      </c>
+      <c r="B433" t="s">
+        <v>125</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A434" t="s">
+        <v>197</v>
+      </c>
+      <c r="B434" t="s">
+        <v>125</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A435" t="s">
+        <v>198</v>
+      </c>
+      <c r="B435" t="s">
+        <v>125</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A436" t="s">
+        <v>199</v>
+      </c>
+      <c r="B436" t="s">
+        <v>125</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A437" t="s">
+        <v>200</v>
+      </c>
+      <c r="B437" t="s">
+        <v>125</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A438" t="s">
+        <v>201</v>
+      </c>
+      <c r="B438" t="s">
+        <v>125</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A439" t="s">
+        <v>202</v>
+      </c>
+      <c r="B439" t="s">
+        <v>125</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A440" t="s">
+        <v>203</v>
+      </c>
+      <c r="B440" t="s">
+        <v>125</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A441" t="s">
+        <v>204</v>
+      </c>
+      <c r="B441" t="s">
+        <v>125</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A442" t="s">
+        <v>205</v>
+      </c>
+      <c r="B442" t="s">
+        <v>125</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A443" t="s">
+        <v>206</v>
+      </c>
+      <c r="B443" t="s">
+        <v>125</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A444" t="s">
+        <v>207</v>
+      </c>
+      <c r="B444" t="s">
+        <v>125</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A445" t="s">
+        <v>208</v>
+      </c>
+      <c r="B445" t="s">
+        <v>125</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A446" t="s">
+        <v>209</v>
+      </c>
+      <c r="B446" t="s">
+        <v>125</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A447" t="s">
+        <v>210</v>
+      </c>
+      <c r="B447" t="s">
+        <v>125</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A448" t="s">
+        <v>211</v>
+      </c>
+      <c r="B448" t="s">
+        <v>125</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A449" t="s">
+        <v>212</v>
+      </c>
+      <c r="B449" t="s">
+        <v>125</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A450" t="s">
+        <v>213</v>
+      </c>
+      <c r="B450" t="s">
+        <v>125</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A451" t="s">
+        <v>214</v>
+      </c>
+      <c r="B451" t="s">
+        <v>125</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A452" t="s">
+        <v>215</v>
+      </c>
+      <c r="B452" t="s">
+        <v>125</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A453" t="s">
+        <v>216</v>
+      </c>
+      <c r="B453" t="s">
+        <v>125</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A454" t="s">
+        <v>217</v>
+      </c>
+      <c r="B454" t="s">
+        <v>125</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A455" t="s">
+        <v>218</v>
+      </c>
+      <c r="B455" t="s">
+        <v>125</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A456" t="s">
+        <v>219</v>
+      </c>
+      <c r="B456" t="s">
+        <v>125</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A457" t="s">
+        <v>220</v>
+      </c>
+      <c r="B457" t="s">
+        <v>125</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A458" t="s">
+        <v>221</v>
+      </c>
+      <c r="B458" t="s">
+        <v>125</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A459" t="s">
+        <v>222</v>
+      </c>
+      <c r="B459" t="s">
+        <v>125</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A460" t="s">
+        <v>223</v>
+      </c>
+      <c r="B460" t="s">
+        <v>125</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A461" t="s">
+        <v>224</v>
+      </c>
+      <c r="B461" t="s">
+        <v>125</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A462" t="s">
+        <v>225</v>
+      </c>
+      <c r="B462" t="s">
+        <v>125</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A463" t="s">
+        <v>226</v>
+      </c>
+      <c r="B463" t="s">
+        <v>125</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A464" t="s">
+        <v>227</v>
+      </c>
+      <c r="B464" t="s">
+        <v>125</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A465" t="s">
+        <v>228</v>
+      </c>
+      <c r="B465" t="s">
+        <v>125</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A466" t="s">
+        <v>229</v>
+      </c>
+      <c r="B466" t="s">
+        <v>125</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A467" t="s">
+        <v>230</v>
+      </c>
+      <c r="B467" t="s">
+        <v>125</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A468" t="s">
+        <v>231</v>
+      </c>
+      <c r="B468" t="s">
+        <v>125</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A469" t="s">
+        <v>232</v>
+      </c>
+      <c r="B469" t="s">
+        <v>125</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A470" t="s">
+        <v>233</v>
+      </c>
+      <c r="B470" t="s">
+        <v>125</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A471" t="s">
+        <v>234</v>
+      </c>
+      <c r="B471" t="s">
+        <v>125</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A472" t="s">
+        <v>235</v>
+      </c>
+      <c r="B472" t="s">
+        <v>125</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A473" t="s">
+        <v>236</v>
+      </c>
+      <c r="B473" t="s">
+        <v>125</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A474" t="s">
+        <v>237</v>
+      </c>
+      <c r="B474" t="s">
+        <v>125</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A475" t="s">
+        <v>238</v>
+      </c>
+      <c r="B475" t="s">
+        <v>125</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A476" t="s">
+        <v>239</v>
+      </c>
+      <c r="B476" t="s">
+        <v>125</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A477" t="s">
+        <v>240</v>
+      </c>
+      <c r="B477" t="s">
+        <v>125</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A478" t="s">
+        <v>241</v>
+      </c>
+      <c r="B478" t="s">
+        <v>125</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A479" t="s">
+        <v>242</v>
+      </c>
+      <c r="B479" t="s">
+        <v>125</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A480" t="s">
+        <v>243</v>
+      </c>
+      <c r="B480" t="s">
+        <v>125</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A481" t="s">
+        <v>244</v>
+      </c>
+      <c r="B481" t="s">
+        <v>125</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A482" t="s">
+        <v>3</v>
+      </c>
+      <c r="B482" t="s">
+        <v>4</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A483" t="s">
+        <v>5</v>
+      </c>
+      <c r="B483" t="s">
+        <v>4</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A484" t="s">
+        <v>6</v>
+      </c>
+      <c r="B484" t="s">
+        <v>4</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A485" t="s">
+        <v>7</v>
+      </c>
+      <c r="B485" t="s">
+        <v>4</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A486" t="s">
+        <v>8</v>
+      </c>
+      <c r="B486" t="s">
+        <v>4</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A487" t="s">
+        <v>9</v>
+      </c>
+      <c r="B487" t="s">
+        <v>4</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A488" t="s">
+        <v>10</v>
+      </c>
+      <c r="B488" t="s">
+        <v>4</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A489" t="s">
+        <v>11</v>
+      </c>
+      <c r="B489" t="s">
+        <v>4</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A490" t="s">
+        <v>12</v>
+      </c>
+      <c r="B490" t="s">
+        <v>4</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A491" t="s">
+        <v>13</v>
+      </c>
+      <c r="B491" t="s">
+        <v>4</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A492" t="s">
+        <v>14</v>
+      </c>
+      <c r="B492" t="s">
+        <v>4</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A493" t="s">
+        <v>15</v>
+      </c>
+      <c r="B493" t="s">
+        <v>4</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A494" t="s">
+        <v>16</v>
+      </c>
+      <c r="B494" t="s">
+        <v>4</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A495" t="s">
+        <v>17</v>
+      </c>
+      <c r="B495" t="s">
+        <v>4</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A496" t="s">
+        <v>18</v>
+      </c>
+      <c r="B496" t="s">
+        <v>4</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A497" t="s">
+        <v>19</v>
+      </c>
+      <c r="B497" t="s">
+        <v>4</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A498" t="s">
+        <v>20</v>
+      </c>
+      <c r="B498" t="s">
+        <v>4</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A499" t="s">
+        <v>21</v>
+      </c>
+      <c r="B499" t="s">
+        <v>4</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A500" t="s">
+        <v>22</v>
+      </c>
+      <c r="B500" t="s">
+        <v>4</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A501" t="s">
+        <v>23</v>
+      </c>
+      <c r="B501" t="s">
+        <v>4</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A502" t="s">
+        <v>24</v>
+      </c>
+      <c r="B502" t="s">
+        <v>4</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A503" t="s">
+        <v>25</v>
+      </c>
+      <c r="B503" t="s">
+        <v>4</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A504" t="s">
+        <v>26</v>
+      </c>
+      <c r="B504" t="s">
+        <v>4</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A505" t="s">
+        <v>27</v>
+      </c>
+      <c r="B505" t="s">
+        <v>4</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A506" t="s">
+        <v>28</v>
+      </c>
+      <c r="B506" t="s">
+        <v>4</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A507" t="s">
+        <v>29</v>
+      </c>
+      <c r="B507" t="s">
+        <v>4</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A508" t="s">
+        <v>30</v>
+      </c>
+      <c r="B508" t="s">
+        <v>4</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A509" t="s">
+        <v>31</v>
+      </c>
+      <c r="B509" t="s">
+        <v>4</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A510" t="s">
+        <v>32</v>
+      </c>
+      <c r="B510" t="s">
+        <v>4</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A511" t="s">
+        <v>33</v>
+      </c>
+      <c r="B511" t="s">
+        <v>4</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A512" t="s">
+        <v>34</v>
+      </c>
+      <c r="B512" t="s">
+        <v>4</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A513" t="s">
+        <v>35</v>
+      </c>
+      <c r="B513" t="s">
+        <v>4</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A514" t="s">
+        <v>36</v>
+      </c>
+      <c r="B514" t="s">
+        <v>4</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A515" t="s">
+        <v>37</v>
+      </c>
+      <c r="B515" t="s">
+        <v>4</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A516" t="s">
+        <v>38</v>
+      </c>
+      <c r="B516" t="s">
+        <v>4</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A517" t="s">
+        <v>39</v>
+      </c>
+      <c r="B517" t="s">
+        <v>4</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A518" t="s">
+        <v>40</v>
+      </c>
+      <c r="B518" t="s">
+        <v>4</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A519" t="s">
+        <v>41</v>
+      </c>
+      <c r="B519" t="s">
+        <v>4</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A520" t="s">
+        <v>42</v>
+      </c>
+      <c r="B520" t="s">
+        <v>4</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A521" t="s">
+        <v>43</v>
+      </c>
+      <c r="B521" t="s">
+        <v>4</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A522" t="s">
+        <v>44</v>
+      </c>
+      <c r="B522" t="s">
+        <v>4</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A523" t="s">
+        <v>45</v>
+      </c>
+      <c r="B523" t="s">
+        <v>4</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A524" t="s">
+        <v>46</v>
+      </c>
+      <c r="B524" t="s">
+        <v>4</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A525" t="s">
+        <v>47</v>
+      </c>
+      <c r="B525" t="s">
+        <v>4</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A526" t="s">
+        <v>48</v>
+      </c>
+      <c r="B526" t="s">
+        <v>4</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A527" t="s">
+        <v>49</v>
+      </c>
+      <c r="B527" t="s">
+        <v>4</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A528" t="s">
+        <v>50</v>
+      </c>
+      <c r="B528" t="s">
+        <v>4</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A529" t="s">
+        <v>51</v>
+      </c>
+      <c r="B529" t="s">
+        <v>4</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A530" t="s">
+        <v>52</v>
+      </c>
+      <c r="B530" t="s">
+        <v>4</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A531" t="s">
+        <v>53</v>
+      </c>
+      <c r="B531" t="s">
+        <v>4</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A532" t="s">
+        <v>54</v>
+      </c>
+      <c r="B532" t="s">
+        <v>4</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A533" t="s">
+        <v>55</v>
+      </c>
+      <c r="B533" t="s">
+        <v>4</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A534" t="s">
+        <v>56</v>
+      </c>
+      <c r="B534" t="s">
+        <v>4</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A535" t="s">
+        <v>57</v>
+      </c>
+      <c r="B535" t="s">
+        <v>4</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A536" t="s">
+        <v>58</v>
+      </c>
+      <c r="B536" t="s">
+        <v>4</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A537" t="s">
+        <v>59</v>
+      </c>
+      <c r="B537" t="s">
+        <v>4</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A538" t="s">
+        <v>60</v>
+      </c>
+      <c r="B538" t="s">
+        <v>4</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A539" t="s">
+        <v>61</v>
+      </c>
+      <c r="B539" t="s">
+        <v>4</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A540" t="s">
+        <v>62</v>
+      </c>
+      <c r="B540" t="s">
+        <v>4</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A541" t="s">
+        <v>63</v>
+      </c>
+      <c r="B541" t="s">
+        <v>4</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A542" t="s">
+        <v>64</v>
+      </c>
+      <c r="B542" t="s">
+        <v>4</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A543" t="s">
+        <v>65</v>
+      </c>
+      <c r="B543" t="s">
+        <v>4</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A544" t="s">
+        <v>66</v>
+      </c>
+      <c r="B544" t="s">
+        <v>4</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A545" t="s">
+        <v>67</v>
+      </c>
+      <c r="B545" t="s">
+        <v>4</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A546" t="s">
+        <v>68</v>
+      </c>
+      <c r="B546" t="s">
+        <v>4</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A547" t="s">
+        <v>69</v>
+      </c>
+      <c r="B547" t="s">
+        <v>4</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A548" t="s">
+        <v>70</v>
+      </c>
+      <c r="B548" t="s">
+        <v>4</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A549" t="s">
+        <v>71</v>
+      </c>
+      <c r="B549" t="s">
+        <v>4</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A550" t="s">
+        <v>72</v>
+      </c>
+      <c r="B550" t="s">
+        <v>4</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A551" t="s">
+        <v>73</v>
+      </c>
+      <c r="B551" t="s">
+        <v>4</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A552" t="s">
+        <v>74</v>
+      </c>
+      <c r="B552" t="s">
+        <v>4</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A553" t="s">
+        <v>75</v>
+      </c>
+      <c r="B553" t="s">
+        <v>4</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A554" t="s">
+        <v>76</v>
+      </c>
+      <c r="B554" t="s">
+        <v>4</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A555" t="s">
+        <v>77</v>
+      </c>
+      <c r="B555" t="s">
+        <v>4</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A556" t="s">
+        <v>78</v>
+      </c>
+      <c r="B556" t="s">
+        <v>4</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A557" t="s">
+        <v>79</v>
+      </c>
+      <c r="B557" t="s">
+        <v>4</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A558" t="s">
+        <v>80</v>
+      </c>
+      <c r="B558" t="s">
+        <v>4</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A559" t="s">
+        <v>81</v>
+      </c>
+      <c r="B559" t="s">
+        <v>4</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A560" t="s">
+        <v>82</v>
+      </c>
+      <c r="B560" t="s">
+        <v>4</v>
+      </c>
+      <c r="C560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A561" t="s">
+        <v>83</v>
+      </c>
+      <c r="B561" t="s">
+        <v>4</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A562" t="s">
+        <v>84</v>
+      </c>
+      <c r="B562" t="s">
+        <v>4</v>
+      </c>
+      <c r="C562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A563" t="s">
+        <v>85</v>
+      </c>
+      <c r="B563" t="s">
+        <v>4</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A564" t="s">
+        <v>86</v>
+      </c>
+      <c r="B564" t="s">
+        <v>4</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A565" t="s">
+        <v>87</v>
+      </c>
+      <c r="B565" t="s">
+        <v>4</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A566" t="s">
+        <v>88</v>
+      </c>
+      <c r="B566" t="s">
+        <v>4</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A567" t="s">
+        <v>89</v>
+      </c>
+      <c r="B567" t="s">
+        <v>4</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A568" t="s">
+        <v>90</v>
+      </c>
+      <c r="B568" t="s">
+        <v>4</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A569" t="s">
+        <v>91</v>
+      </c>
+      <c r="B569" t="s">
+        <v>4</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A570" t="s">
+        <v>92</v>
+      </c>
+      <c r="B570" t="s">
+        <v>4</v>
+      </c>
+      <c r="C570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A571" t="s">
+        <v>93</v>
+      </c>
+      <c r="B571" t="s">
+        <v>4</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A572" t="s">
+        <v>94</v>
+      </c>
+      <c r="B572" t="s">
+        <v>4</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A573" t="s">
+        <v>95</v>
+      </c>
+      <c r="B573" t="s">
+        <v>4</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A574" t="s">
+        <v>96</v>
+      </c>
+      <c r="B574" t="s">
+        <v>4</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A575" t="s">
+        <v>97</v>
+      </c>
+      <c r="B575" t="s">
+        <v>4</v>
+      </c>
+      <c r="C575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A576" t="s">
+        <v>98</v>
+      </c>
+      <c r="B576" t="s">
+        <v>4</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A577" t="s">
+        <v>99</v>
+      </c>
+      <c r="B577" t="s">
+        <v>4</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A578" t="s">
+        <v>100</v>
+      </c>
+      <c r="B578" t="s">
+        <v>4</v>
+      </c>
+      <c r="C578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A579" t="s">
+        <v>101</v>
+      </c>
+      <c r="B579" t="s">
+        <v>4</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A580" t="s">
+        <v>102</v>
+      </c>
+      <c r="B580" t="s">
+        <v>4</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A581" t="s">
+        <v>103</v>
+      </c>
+      <c r="B581" t="s">
+        <v>4</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A582" t="s">
+        <v>104</v>
+      </c>
+      <c r="B582" t="s">
+        <v>4</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A583" t="s">
+        <v>105</v>
+      </c>
+      <c r="B583" t="s">
+        <v>4</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A584" t="s">
+        <v>106</v>
+      </c>
+      <c r="B584" t="s">
+        <v>4</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A585" t="s">
+        <v>107</v>
+      </c>
+      <c r="B585" t="s">
+        <v>4</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A586" t="s">
+        <v>108</v>
+      </c>
+      <c r="B586" t="s">
+        <v>4</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A587" t="s">
+        <v>109</v>
+      </c>
+      <c r="B587" t="s">
+        <v>4</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A588" t="s">
+        <v>110</v>
+      </c>
+      <c r="B588" t="s">
+        <v>4</v>
+      </c>
+      <c r="C588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A589" t="s">
+        <v>111</v>
+      </c>
+      <c r="B589" t="s">
+        <v>4</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A590" t="s">
+        <v>112</v>
+      </c>
+      <c r="B590" t="s">
+        <v>4</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A591" t="s">
+        <v>113</v>
+      </c>
+      <c r="B591" t="s">
+        <v>4</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A592" t="s">
+        <v>114</v>
+      </c>
+      <c r="B592" t="s">
+        <v>4</v>
+      </c>
+      <c r="C592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A593" t="s">
+        <v>115</v>
+      </c>
+      <c r="B593" t="s">
+        <v>4</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A594" t="s">
+        <v>116</v>
+      </c>
+      <c r="B594" t="s">
+        <v>4</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A595" t="s">
+        <v>117</v>
+      </c>
+      <c r="B595" t="s">
+        <v>4</v>
+      </c>
+      <c r="C595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A596" t="s">
+        <v>118</v>
+      </c>
+      <c r="B596" t="s">
+        <v>4</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A597" t="s">
+        <v>119</v>
+      </c>
+      <c r="B597" t="s">
+        <v>4</v>
+      </c>
+      <c r="C597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A598" t="s">
+        <v>120</v>
+      </c>
+      <c r="B598" t="s">
+        <v>4</v>
+      </c>
+      <c r="C598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A599" t="s">
+        <v>121</v>
+      </c>
+      <c r="B599" t="s">
+        <v>4</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A600" t="s">
+        <v>122</v>
+      </c>
+      <c r="B600" t="s">
+        <v>4</v>
+      </c>
+      <c r="C600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A601" t="s">
+        <v>123</v>
+      </c>
+      <c r="B601" t="s">
+        <v>4</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A602" t="s">
+        <v>124</v>
+      </c>
+      <c r="B602" t="s">
+        <v>125</v>
+      </c>
+      <c r="C602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A603" t="s">
+        <v>126</v>
+      </c>
+      <c r="B603" t="s">
+        <v>125</v>
+      </c>
+      <c r="C603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A604" t="s">
+        <v>127</v>
+      </c>
+      <c r="B604" t="s">
+        <v>125</v>
+      </c>
+      <c r="C604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A605" t="s">
+        <v>128</v>
+      </c>
+      <c r="B605" t="s">
+        <v>125</v>
+      </c>
+      <c r="C605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A606" t="s">
+        <v>129</v>
+      </c>
+      <c r="B606" t="s">
+        <v>125</v>
+      </c>
+      <c r="C606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A607" t="s">
+        <v>130</v>
+      </c>
+      <c r="B607" t="s">
+        <v>125</v>
+      </c>
+      <c r="C607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A608" t="s">
+        <v>131</v>
+      </c>
+      <c r="B608" t="s">
+        <v>125</v>
+      </c>
+      <c r="C608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A609" t="s">
+        <v>132</v>
+      </c>
+      <c r="B609" t="s">
+        <v>125</v>
+      </c>
+      <c r="C609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A610" t="s">
+        <v>133</v>
+      </c>
+      <c r="B610" t="s">
+        <v>125</v>
+      </c>
+      <c r="C610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A611" t="s">
+        <v>134</v>
+      </c>
+      <c r="B611" t="s">
+        <v>125</v>
+      </c>
+      <c r="C611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A612" t="s">
+        <v>135</v>
+      </c>
+      <c r="B612" t="s">
+        <v>125</v>
+      </c>
+      <c r="C612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A613" t="s">
+        <v>136</v>
+      </c>
+      <c r="B613" t="s">
+        <v>125</v>
+      </c>
+      <c r="C613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A614" t="s">
+        <v>137</v>
+      </c>
+      <c r="B614" t="s">
+        <v>125</v>
+      </c>
+      <c r="C614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A615" t="s">
+        <v>138</v>
+      </c>
+      <c r="B615" t="s">
+        <v>125</v>
+      </c>
+      <c r="C615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A616" t="s">
+        <v>139</v>
+      </c>
+      <c r="B616" t="s">
+        <v>125</v>
+      </c>
+      <c r="C616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A617" t="s">
+        <v>140</v>
+      </c>
+      <c r="B617" t="s">
+        <v>125</v>
+      </c>
+      <c r="C617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A618" t="s">
+        <v>141</v>
+      </c>
+      <c r="B618" t="s">
+        <v>125</v>
+      </c>
+      <c r="C618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A619" t="s">
+        <v>142</v>
+      </c>
+      <c r="B619" t="s">
+        <v>125</v>
+      </c>
+      <c r="C619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A620" t="s">
+        <v>143</v>
+      </c>
+      <c r="B620" t="s">
+        <v>125</v>
+      </c>
+      <c r="C620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A621" t="s">
+        <v>144</v>
+      </c>
+      <c r="B621" t="s">
+        <v>125</v>
+      </c>
+      <c r="C621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A622" t="s">
+        <v>145</v>
+      </c>
+      <c r="B622" t="s">
+        <v>125</v>
+      </c>
+      <c r="C622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A623" t="s">
+        <v>146</v>
+      </c>
+      <c r="B623" t="s">
+        <v>125</v>
+      </c>
+      <c r="C623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A624" t="s">
+        <v>147</v>
+      </c>
+      <c r="B624" t="s">
+        <v>125</v>
+      </c>
+      <c r="C624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A625" t="s">
+        <v>148</v>
+      </c>
+      <c r="B625" t="s">
+        <v>125</v>
+      </c>
+      <c r="C625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A626" t="s">
+        <v>149</v>
+      </c>
+      <c r="B626" t="s">
+        <v>125</v>
+      </c>
+      <c r="C626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A627" t="s">
+        <v>150</v>
+      </c>
+      <c r="B627" t="s">
+        <v>125</v>
+      </c>
+      <c r="C627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A628" t="s">
+        <v>151</v>
+      </c>
+      <c r="B628" t="s">
+        <v>125</v>
+      </c>
+      <c r="C628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A629" t="s">
+        <v>152</v>
+      </c>
+      <c r="B629" t="s">
+        <v>125</v>
+      </c>
+      <c r="C629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A630" t="s">
+        <v>153</v>
+      </c>
+      <c r="B630" t="s">
+        <v>125</v>
+      </c>
+      <c r="C630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A631" t="s">
+        <v>154</v>
+      </c>
+      <c r="B631" t="s">
+        <v>125</v>
+      </c>
+      <c r="C631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A632" t="s">
+        <v>155</v>
+      </c>
+      <c r="B632" t="s">
+        <v>125</v>
+      </c>
+      <c r="C632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A633" t="s">
+        <v>156</v>
+      </c>
+      <c r="B633" t="s">
+        <v>125</v>
+      </c>
+      <c r="C633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A634" t="s">
+        <v>157</v>
+      </c>
+      <c r="B634" t="s">
+        <v>125</v>
+      </c>
+      <c r="C634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A635" t="s">
+        <v>158</v>
+      </c>
+      <c r="B635" t="s">
+        <v>125</v>
+      </c>
+      <c r="C635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A636" t="s">
+        <v>159</v>
+      </c>
+      <c r="B636" t="s">
+        <v>125</v>
+      </c>
+      <c r="C636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A637" t="s">
+        <v>160</v>
+      </c>
+      <c r="B637" t="s">
+        <v>125</v>
+      </c>
+      <c r="C637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A638" t="s">
+        <v>161</v>
+      </c>
+      <c r="B638" t="s">
+        <v>125</v>
+      </c>
+      <c r="C638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A639" t="s">
+        <v>162</v>
+      </c>
+      <c r="B639" t="s">
+        <v>125</v>
+      </c>
+      <c r="C639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A640" t="s">
+        <v>163</v>
+      </c>
+      <c r="B640" t="s">
+        <v>125</v>
+      </c>
+      <c r="C640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A641" t="s">
+        <v>164</v>
+      </c>
+      <c r="B641" t="s">
+        <v>125</v>
+      </c>
+      <c r="C641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A642" t="s">
+        <v>165</v>
+      </c>
+      <c r="B642" t="s">
+        <v>125</v>
+      </c>
+      <c r="C642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A643" t="s">
+        <v>166</v>
+      </c>
+      <c r="B643" t="s">
+        <v>125</v>
+      </c>
+      <c r="C643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A644" t="s">
+        <v>167</v>
+      </c>
+      <c r="B644" t="s">
+        <v>125</v>
+      </c>
+      <c r="C644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A645" t="s">
+        <v>168</v>
+      </c>
+      <c r="B645" t="s">
+        <v>125</v>
+      </c>
+      <c r="C645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A646" t="s">
+        <v>169</v>
+      </c>
+      <c r="B646" t="s">
+        <v>125</v>
+      </c>
+      <c r="C646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A647" t="s">
+        <v>170</v>
+      </c>
+      <c r="B647" t="s">
+        <v>125</v>
+      </c>
+      <c r="C647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A648" t="s">
+        <v>171</v>
+      </c>
+      <c r="B648" t="s">
+        <v>125</v>
+      </c>
+      <c r="C648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A649" t="s">
+        <v>172</v>
+      </c>
+      <c r="B649" t="s">
+        <v>125</v>
+      </c>
+      <c r="C649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A650" t="s">
+        <v>173</v>
+      </c>
+      <c r="B650" t="s">
+        <v>125</v>
+      </c>
+      <c r="C650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A651" t="s">
+        <v>174</v>
+      </c>
+      <c r="B651" t="s">
+        <v>125</v>
+      </c>
+      <c r="C651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A652" t="s">
+        <v>175</v>
+      </c>
+      <c r="B652" t="s">
+        <v>125</v>
+      </c>
+      <c r="C652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A653" t="s">
+        <v>176</v>
+      </c>
+      <c r="B653" t="s">
+        <v>125</v>
+      </c>
+      <c r="C653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A654" t="s">
+        <v>177</v>
+      </c>
+      <c r="B654" t="s">
+        <v>125</v>
+      </c>
+      <c r="C654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A655" t="s">
+        <v>178</v>
+      </c>
+      <c r="B655" t="s">
+        <v>125</v>
+      </c>
+      <c r="C655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A656" t="s">
+        <v>179</v>
+      </c>
+      <c r="B656" t="s">
+        <v>125</v>
+      </c>
+      <c r="C656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A657" t="s">
+        <v>180</v>
+      </c>
+      <c r="B657" t="s">
+        <v>125</v>
+      </c>
+      <c r="C657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A658" t="s">
+        <v>181</v>
+      </c>
+      <c r="B658" t="s">
+        <v>125</v>
+      </c>
+      <c r="C658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A659" t="s">
+        <v>182</v>
+      </c>
+      <c r="B659" t="s">
+        <v>125</v>
+      </c>
+      <c r="C659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A660" t="s">
+        <v>183</v>
+      </c>
+      <c r="B660" t="s">
+        <v>125</v>
+      </c>
+      <c r="C660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A661" t="s">
+        <v>184</v>
+      </c>
+      <c r="B661" t="s">
+        <v>125</v>
+      </c>
+      <c r="C661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A662" t="s">
+        <v>185</v>
+      </c>
+      <c r="B662" t="s">
+        <v>125</v>
+      </c>
+      <c r="C662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A663" t="s">
+        <v>186</v>
+      </c>
+      <c r="B663" t="s">
+        <v>125</v>
+      </c>
+      <c r="C663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A664" t="s">
+        <v>187</v>
+      </c>
+      <c r="B664" t="s">
+        <v>125</v>
+      </c>
+      <c r="C664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A665" t="s">
+        <v>188</v>
+      </c>
+      <c r="B665" t="s">
+        <v>125</v>
+      </c>
+      <c r="C665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A666" t="s">
+        <v>189</v>
+      </c>
+      <c r="B666" t="s">
+        <v>125</v>
+      </c>
+      <c r="C666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A667" t="s">
+        <v>190</v>
+      </c>
+      <c r="B667" t="s">
+        <v>125</v>
+      </c>
+      <c r="C667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A668" t="s">
+        <v>191</v>
+      </c>
+      <c r="B668" t="s">
+        <v>125</v>
+      </c>
+      <c r="C668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A669" t="s">
+        <v>192</v>
+      </c>
+      <c r="B669" t="s">
+        <v>125</v>
+      </c>
+      <c r="C669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A670" t="s">
+        <v>193</v>
+      </c>
+      <c r="B670" t="s">
+        <v>125</v>
+      </c>
+      <c r="C670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A671" t="s">
+        <v>194</v>
+      </c>
+      <c r="B671" t="s">
+        <v>125</v>
+      </c>
+      <c r="C671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A672" t="s">
+        <v>195</v>
+      </c>
+      <c r="B672" t="s">
+        <v>125</v>
+      </c>
+      <c r="C672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A673" t="s">
+        <v>196</v>
+      </c>
+      <c r="B673" t="s">
+        <v>125</v>
+      </c>
+      <c r="C673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A674" t="s">
+        <v>197</v>
+      </c>
+      <c r="B674" t="s">
+        <v>125</v>
+      </c>
+      <c r="C674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A675" t="s">
+        <v>198</v>
+      </c>
+      <c r="B675" t="s">
+        <v>125</v>
+      </c>
+      <c r="C675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A676" t="s">
+        <v>199</v>
+      </c>
+      <c r="B676" t="s">
+        <v>125</v>
+      </c>
+      <c r="C676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A677" t="s">
+        <v>200</v>
+      </c>
+      <c r="B677" t="s">
+        <v>125</v>
+      </c>
+      <c r="C677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A678" t="s">
+        <v>201</v>
+      </c>
+      <c r="B678" t="s">
+        <v>125</v>
+      </c>
+      <c r="C678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A679" t="s">
+        <v>202</v>
+      </c>
+      <c r="B679" t="s">
+        <v>125</v>
+      </c>
+      <c r="C679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A680" t="s">
+        <v>203</v>
+      </c>
+      <c r="B680" t="s">
+        <v>125</v>
+      </c>
+      <c r="C680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A681" t="s">
+        <v>204</v>
+      </c>
+      <c r="B681" t="s">
+        <v>125</v>
+      </c>
+      <c r="C681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A682" t="s">
+        <v>205</v>
+      </c>
+      <c r="B682" t="s">
+        <v>125</v>
+      </c>
+      <c r="C682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A683" t="s">
+        <v>206</v>
+      </c>
+      <c r="B683" t="s">
+        <v>125</v>
+      </c>
+      <c r="C683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A684" t="s">
+        <v>207</v>
+      </c>
+      <c r="B684" t="s">
+        <v>125</v>
+      </c>
+      <c r="C684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A685" t="s">
+        <v>208</v>
+      </c>
+      <c r="B685" t="s">
+        <v>125</v>
+      </c>
+      <c r="C685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A686" t="s">
+        <v>209</v>
+      </c>
+      <c r="B686" t="s">
+        <v>125</v>
+      </c>
+      <c r="C686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A687" t="s">
+        <v>210</v>
+      </c>
+      <c r="B687" t="s">
+        <v>125</v>
+      </c>
+      <c r="C687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A688" t="s">
+        <v>211</v>
+      </c>
+      <c r="B688" t="s">
+        <v>125</v>
+      </c>
+      <c r="C688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A689" t="s">
+        <v>212</v>
+      </c>
+      <c r="B689" t="s">
+        <v>125</v>
+      </c>
+      <c r="C689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A690" t="s">
+        <v>213</v>
+      </c>
+      <c r="B690" t="s">
+        <v>125</v>
+      </c>
+      <c r="C690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A691" t="s">
+        <v>214</v>
+      </c>
+      <c r="B691" t="s">
+        <v>125</v>
+      </c>
+      <c r="C691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A692" t="s">
+        <v>215</v>
+      </c>
+      <c r="B692" t="s">
+        <v>125</v>
+      </c>
+      <c r="C692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A693" t="s">
+        <v>216</v>
+      </c>
+      <c r="B693" t="s">
+        <v>125</v>
+      </c>
+      <c r="C693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A694" t="s">
+        <v>217</v>
+      </c>
+      <c r="B694" t="s">
+        <v>125</v>
+      </c>
+      <c r="C694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A695" t="s">
+        <v>218</v>
+      </c>
+      <c r="B695" t="s">
+        <v>125</v>
+      </c>
+      <c r="C695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A696" t="s">
+        <v>219</v>
+      </c>
+      <c r="B696" t="s">
+        <v>125</v>
+      </c>
+      <c r="C696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A697" t="s">
+        <v>220</v>
+      </c>
+      <c r="B697" t="s">
+        <v>125</v>
+      </c>
+      <c r="C697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A698" t="s">
+        <v>221</v>
+      </c>
+      <c r="B698" t="s">
+        <v>125</v>
+      </c>
+      <c r="C698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A699" t="s">
+        <v>222</v>
+      </c>
+      <c r="B699" t="s">
+        <v>125</v>
+      </c>
+      <c r="C699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A700" t="s">
+        <v>223</v>
+      </c>
+      <c r="B700" t="s">
+        <v>125</v>
+      </c>
+      <c r="C700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A701" t="s">
+        <v>224</v>
+      </c>
+      <c r="B701" t="s">
+        <v>125</v>
+      </c>
+      <c r="C701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A702" t="s">
+        <v>225</v>
+      </c>
+      <c r="B702" t="s">
+        <v>125</v>
+      </c>
+      <c r="C702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A703" t="s">
+        <v>226</v>
+      </c>
+      <c r="B703" t="s">
+        <v>125</v>
+      </c>
+      <c r="C703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A704" t="s">
+        <v>227</v>
+      </c>
+      <c r="B704" t="s">
+        <v>125</v>
+      </c>
+      <c r="C704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A705" t="s">
+        <v>228</v>
+      </c>
+      <c r="B705" t="s">
+        <v>125</v>
+      </c>
+      <c r="C705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A706" t="s">
+        <v>229</v>
+      </c>
+      <c r="B706" t="s">
+        <v>125</v>
+      </c>
+      <c r="C706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A707" t="s">
+        <v>230</v>
+      </c>
+      <c r="B707" t="s">
+        <v>125</v>
+      </c>
+      <c r="C707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A708" t="s">
+        <v>231</v>
+      </c>
+      <c r="B708" t="s">
+        <v>125</v>
+      </c>
+      <c r="C708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A709" t="s">
+        <v>232</v>
+      </c>
+      <c r="B709" t="s">
+        <v>125</v>
+      </c>
+      <c r="C709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A710" t="s">
+        <v>233</v>
+      </c>
+      <c r="B710" t="s">
+        <v>125</v>
+      </c>
+      <c r="C710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A711" t="s">
+        <v>234</v>
+      </c>
+      <c r="B711" t="s">
+        <v>125</v>
+      </c>
+      <c r="C711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A712" t="s">
+        <v>235</v>
+      </c>
+      <c r="B712" t="s">
+        <v>125</v>
+      </c>
+      <c r="C712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A713" t="s">
+        <v>236</v>
+      </c>
+      <c r="B713" t="s">
+        <v>125</v>
+      </c>
+      <c r="C713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A714" t="s">
+        <v>237</v>
+      </c>
+      <c r="B714" t="s">
+        <v>125</v>
+      </c>
+      <c r="C714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A715" t="s">
+        <v>238</v>
+      </c>
+      <c r="B715" t="s">
+        <v>125</v>
+      </c>
+      <c r="C715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A716" t="s">
+        <v>239</v>
+      </c>
+      <c r="B716" t="s">
+        <v>125</v>
+      </c>
+      <c r="C716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A717" t="s">
+        <v>240</v>
+      </c>
+      <c r="B717" t="s">
+        <v>125</v>
+      </c>
+      <c r="C717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A718" t="s">
+        <v>241</v>
+      </c>
+      <c r="B718" t="s">
+        <v>125</v>
+      </c>
+      <c r="C718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A719" t="s">
+        <v>242</v>
+      </c>
+      <c r="B719" t="s">
+        <v>125</v>
+      </c>
+      <c r="C719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A720" t="s">
+        <v>243</v>
+      </c>
+      <c r="B720" t="s">
+        <v>125</v>
+      </c>
+      <c r="C720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A721" t="s">
+        <v>244</v>
+      </c>
+      <c r="B721" t="s">
+        <v>125</v>
+      </c>
+      <c r="C721">
         <v>0</v>
       </c>
     </row>
